--- a/doc/配置/item.xlsx
+++ b/doc/配置/item.xlsx
@@ -11,12 +11,50 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 功能型
+2 珍宝（兑换积分）
+3 材料（碎片）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,18 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Need_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Need_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Need_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合成材料3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合成材料2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,15 +136,59 @@
     <t>这是物品5</t>
   </si>
   <si>
-    <t>2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need_Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need_Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片资源名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换需要积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +220,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,24 +572,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,177 +600,243 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <f>D4*2</f>
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E8" si="0">D5*2</f>
+        <v>40</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
         <v>50</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/配置/item.xlsx
+++ b/doc/配置/item.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="21600" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -21,15 +21,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -37,9 +35,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,198 +50,512 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need_Point</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
   <si>
     <t>Des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need_Item</t>
+  </si>
+  <si>
+    <t>Need_Num</t>
+  </si>
+  <si>
+    <t>Pic</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
   </si>
   <si>
     <t>积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换需要积分</t>
+  </si>
+  <si>
+    <t>重量</t>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合成材料1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合成材料2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片资源名</t>
   </si>
   <si>
     <t>物品1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是物品1</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>gold_1_png</t>
   </si>
   <si>
     <t>物品2</t>
   </si>
   <si>
+    <t>这是物品2</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>gold_2_png</t>
+  </si>
+  <si>
     <t>物品3</t>
   </si>
   <si>
+    <t>这是物品3</t>
+  </si>
+  <si>
+    <t>gold_3_png</t>
+  </si>
+  <si>
     <t>物品4</t>
   </si>
   <si>
+    <t>这是物品4</t>
+  </si>
+  <si>
+    <t>gold_4_png</t>
+  </si>
+  <si>
     <t>物品5</t>
   </si>
   <si>
-    <t>这是物品1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是物品2</t>
-  </si>
-  <si>
-    <t>这是物品3</t>
-  </si>
-  <si>
-    <t>这是物品4</t>
-  </si>
-  <si>
     <t>这是物品5</t>
   </si>
   <si>
-    <t>3,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Need_Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Need_Num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片资源名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换需要积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Need_Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>gold_5_png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -253,9 +563,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -263,24 +815,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -329,7 +925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +960,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,303 +1163,323 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.75" style="2" customWidth="1"/>
+    <col min="2" max="3" width="8.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
+    <col min="8" max="9" width="10.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f>D4*2</f>
         <v>20</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <f t="shared" ref="E5:E8" si="0">D5*2</f>
         <v>40</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>30</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>40</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>50</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/配置/item.xlsx
+++ b/doc/配置/item.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\MiGong\MiGong\doc\配置\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,9 +135,6 @@
     <t>3,2</t>
   </si>
   <si>
-    <t>gold_1_png</t>
-  </si>
-  <si>
     <t>物品2</t>
   </si>
   <si>
@@ -142,47 +144,47 @@
     <t>2,3</t>
   </si>
   <si>
-    <t>gold_2_png</t>
-  </si>
-  <si>
     <t>物品3</t>
   </si>
   <si>
     <t>这是物品3</t>
   </si>
   <si>
-    <t>gold_3_png</t>
-  </si>
-  <si>
     <t>物品4</t>
   </si>
   <si>
     <t>这是物品4</t>
   </si>
   <si>
-    <t>gold_4_png</t>
-  </si>
-  <si>
     <t>物品5</t>
   </si>
   <si>
     <t>这是物品5</t>
   </si>
   <si>
-    <t>gold_5_png</t>
+    <t>gold_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold_4</t>
+  </si>
+  <si>
+    <t>gold_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,157 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -360,202 +211,31 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -563,255 +243,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,62 +259,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1163,19 +560,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="2" customWidth="1"/>
@@ -1187,7 +584,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1251,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1283,7 +680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1312,16 +709,16 @@
       <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1337,24 +734,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1370,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1378,16 +775,16 @@
       <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>33</v>
+      <c r="J6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -1403,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>24</v>
@@ -1411,16 +808,16 @@
       <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>36</v>
+      <c r="J7" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -1436,50 +833,44 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/配置/item.xlsx
+++ b/doc/配置/item.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\MiGong\MiGong\doc\配置\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9435"/>
+    <workbookView windowWidth="20925" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -24,9 +19,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
+    <author>xb</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,12 +46,41 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xb:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+red 
+green
+blue 
+yellow
+black 
+purple 
+pink 
+white </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +94,9 @@
     <t>Point</t>
   </si>
   <si>
+    <t>Quality</t>
+  </si>
+  <si>
     <t>Need_Point</t>
   </si>
   <si>
@@ -105,6 +133,9 @@
     <t>积分</t>
   </si>
   <si>
+    <t>品质颜色</t>
+  </si>
+  <si>
     <t>兑换需要积分</t>
   </si>
   <si>
@@ -126,6 +157,9 @@
     <t>物品1</t>
   </si>
   <si>
+    <t>green</t>
+  </si>
+  <si>
     <t>这是物品1</t>
   </si>
   <si>
@@ -135,9 +169,15 @@
     <t>3,2</t>
   </si>
   <si>
+    <t>gold_1</t>
+  </si>
+  <si>
     <t>物品2</t>
   </si>
   <si>
+    <t>blue</t>
+  </si>
+  <si>
     <t>这是物品2</t>
   </si>
   <si>
@@ -147,6 +187,9 @@
     <t>物品3</t>
   </si>
   <si>
+    <t>purple</t>
+  </si>
+  <si>
     <t>这是物品3</t>
   </si>
   <si>
@@ -162,29 +205,338 @@
     <t>这是物品5</t>
   </si>
   <si>
-    <t>gold_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold_4</t>
-  </si>
-  <si>
-    <t>gold_5</t>
+    <t>物品6</t>
+  </si>
+  <si>
+    <t>这是物品6</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>物品7</t>
+  </si>
+  <si>
+    <t>这是物品7</t>
+  </si>
+  <si>
+    <t>物品8</t>
+  </si>
+  <si>
+    <t>这是物品8</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>物品9</t>
+  </si>
+  <si>
+    <t>这是物品9</t>
+  </si>
+  <si>
+    <t>物品10</t>
+  </si>
+  <si>
+    <t>这是物品10</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>物品11</t>
+  </si>
+  <si>
+    <t>这是物品11</t>
+  </si>
+  <si>
+    <t>物品12</t>
+  </si>
+  <si>
+    <t>这是物品12</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>物品13</t>
+  </si>
+  <si>
+    <t>这是物品13</t>
+  </si>
+  <si>
+    <t>物品14</t>
+  </si>
+  <si>
+    <t>这是物品14</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>物品15</t>
+  </si>
+  <si>
+    <t>这是物品15</t>
+  </si>
+  <si>
+    <t>物品16</t>
+  </si>
+  <si>
+    <t>这是物品16</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>物品17</t>
+  </si>
+  <si>
+    <t>这是物品17</t>
+  </si>
+  <si>
+    <t>物品18</t>
+  </si>
+  <si>
+    <t>这是物品18</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
+    <t>物品19</t>
+  </si>
+  <si>
+    <t>这是物品19</t>
+  </si>
+  <si>
+    <t>物品20</t>
+  </si>
+  <si>
+    <t>这是物品20</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>3,10</t>
+  </si>
+  <si>
+    <t>物品21</t>
+  </si>
+  <si>
+    <t>这是物品21</t>
+  </si>
+  <si>
+    <t>物品22</t>
+  </si>
+  <si>
+    <t>这是物品22</t>
+  </si>
+  <si>
+    <t>1,11</t>
+  </si>
+  <si>
+    <t>3,11</t>
+  </si>
+  <si>
+    <t>物品23</t>
+  </si>
+  <si>
+    <t>这是物品23</t>
+  </si>
+  <si>
+    <t>物品24</t>
+  </si>
+  <si>
+    <t>这是物品24</t>
+  </si>
+  <si>
+    <t>1,12</t>
+  </si>
+  <si>
+    <t>3,12</t>
+  </si>
+  <si>
+    <t>物品25</t>
+  </si>
+  <si>
+    <t>这是物品25</t>
+  </si>
+  <si>
+    <t>物品26</t>
+  </si>
+  <si>
+    <t>这是物品26</t>
+  </si>
+  <si>
+    <t>1,13</t>
+  </si>
+  <si>
+    <t>3,13</t>
+  </si>
+  <si>
+    <t>物品27</t>
+  </si>
+  <si>
+    <t>这是物品27</t>
+  </si>
+  <si>
+    <t>物品28</t>
+  </si>
+  <si>
+    <t>这是物品28</t>
+  </si>
+  <si>
+    <t>1,14</t>
+  </si>
+  <si>
+    <t>3,14</t>
+  </si>
+  <si>
+    <t>物品29</t>
+  </si>
+  <si>
+    <t>这是物品29</t>
+  </si>
+  <si>
+    <t>物品30</t>
+  </si>
+  <si>
+    <t>这是物品30</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>3,15</t>
+  </si>
+  <si>
+    <t>物品31</t>
+  </si>
+  <si>
+    <t>这是物品31</t>
+  </si>
+  <si>
+    <t>物品32</t>
+  </si>
+  <si>
+    <t>这是物品32</t>
+  </si>
+  <si>
+    <t>1,16</t>
+  </si>
+  <si>
+    <t>3,16</t>
+  </si>
+  <si>
+    <t>物品33</t>
+  </si>
+  <si>
+    <t>这是物品33</t>
+  </si>
+  <si>
+    <t>物品34</t>
+  </si>
+  <si>
+    <t>这是物品34</t>
+  </si>
+  <si>
+    <t>1,17</t>
+  </si>
+  <si>
+    <t>3,17</t>
+  </si>
+  <si>
+    <t>物品35</t>
+  </si>
+  <si>
+    <t>这是物品35</t>
+  </si>
+  <si>
+    <t>物品36</t>
+  </si>
+  <si>
+    <t>这是物品36</t>
+  </si>
+  <si>
+    <t>1,18</t>
+  </si>
+  <si>
+    <t>3,18</t>
+  </si>
+  <si>
+    <t>物品37</t>
+  </si>
+  <si>
+    <t>这是物品37</t>
+  </si>
+  <si>
+    <t>物品38</t>
+  </si>
+  <si>
+    <t>这是物品38</t>
+  </si>
+  <si>
+    <t>1,19</t>
+  </si>
+  <si>
+    <t>3,19</t>
+  </si>
+  <si>
+    <t>物品39</t>
+  </si>
+  <si>
+    <t>这是物品39</t>
+  </si>
+  <si>
+    <t>物品40</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>这是物品40</t>
+  </si>
+  <si>
+    <t>1,20</t>
+  </si>
+  <si>
+    <t>3,20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +553,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -211,31 +713,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -243,13 +916,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,21 +1174,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,31 +1522,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="9" width="10.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="8.125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="11.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" customWidth="1"/>
+    <col min="9" max="10" width="10.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +1560,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -615,77 +1578,86 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -693,32 +1665,35 @@
       <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
         <f>D4*2</f>
         <v>20</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -726,32 +1701,35 @@
       <c r="D5" s="2">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5:E8" si="0">D5*2</f>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F8" si="0">D5*2</f>
         <v>40</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -759,32 +1737,35 @@
       <c r="D6" s="2">
         <v>30</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -792,32 +1773,35 @@
       <c r="D7" s="2">
         <v>40</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -825,52 +1809,1224 @@
       <c r="D8" s="2">
         <v>50</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:F43" si="1">D9*2</f>
+        <v>120</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>90</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>110</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="G14" s="2">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>120</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G15" s="2">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>130</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="G16" s="2">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>140</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="G17" s="2">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>150</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G18" s="2">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
+        <v>160</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="G19" s="2">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>170</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="G20" s="2">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2">
+        <v>180</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="G21" s="2">
+        <v>18</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="2">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2">
+        <v>190</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="G22" s="2">
+        <v>19</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2">
+        <v>200</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="G23" s="2">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="2">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2">
+        <v>210</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="G24" s="2">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="2">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2">
+        <v>220</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="G25" s="2">
+        <v>22</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="2">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2">
+        <v>230</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="G26" s="2">
+        <v>23</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2">
+        <v>240</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="G27" s="2">
+        <v>24</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="2">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2">
+        <v>250</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G28" s="2">
+        <v>25</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="2">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2">
+        <v>260</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+      <c r="G29" s="2">
+        <v>26</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2">
+        <v>270</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="G30" s="2">
+        <v>27</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2">
+        <v>280</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="G31" s="2">
+        <v>28</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="2">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2">
+        <v>290</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>580</v>
+      </c>
+      <c r="G32" s="2">
+        <v>29</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="2">
+        <v>28</v>
+      </c>
+      <c r="D33" s="2">
+        <v>300</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="G33" s="2">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="2">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2">
+        <v>310</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>620</v>
+      </c>
+      <c r="G34" s="2">
+        <v>31</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="2">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2">
+        <v>320</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="G35" s="2">
+        <v>32</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="2">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2">
+        <v>330</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="G36" s="2">
+        <v>33</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2">
         <v>34</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="2">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2">
+        <v>340</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+      <c r="G37" s="2">
+        <v>34</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="2">
+        <v>33</v>
+      </c>
+      <c r="D38" s="2">
+        <v>350</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="G38" s="2">
+        <v>35</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="2">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2">
+        <v>360</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="G39" s="2">
+        <v>36</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="2">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2">
+        <v>370</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="1"/>
+        <v>740</v>
+      </c>
+      <c r="G40" s="2">
+        <v>37</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="2">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2">
+        <v>380</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="1"/>
+        <v>760</v>
+      </c>
+      <c r="G41" s="2">
+        <v>38</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2">
         <v>39</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="2">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2">
+        <v>390</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+      <c r="G42" s="2">
+        <v>39</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="2">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2">
+        <v>400</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="G43" s="2">
+        <v>40</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E6 E7:E9 E10:E12 E13:E15 E16:E18 E19:E21 E22:E24 E25:E27 E28:E30 E31:E33 E34:E36 E37:E39 E40:E42 E43:E1048576">
+      <formula1>"red,green,blue,yellow,black,purple,pink,white"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>